--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H2">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J2">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>169.2743910207257</v>
+        <v>280.5161103675666</v>
       </c>
       <c r="R2">
-        <v>1523.469519186531</v>
+        <v>2524.644993308099</v>
       </c>
       <c r="S2">
-        <v>0.08808428036450414</v>
+        <v>0.1711199289270549</v>
       </c>
       <c r="T2">
-        <v>0.08808428036450414</v>
+        <v>0.1711199289270548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H3">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J3">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
-        <v>147.5508880803911</v>
+        <v>212.6743565786666</v>
       </c>
       <c r="R3">
-        <v>1327.95799272352</v>
+        <v>1914.069209208</v>
       </c>
       <c r="S3">
-        <v>0.07678015389884595</v>
+        <v>0.1297352253125934</v>
       </c>
       <c r="T3">
-        <v>0.07678015389884596</v>
+        <v>0.1297352253125933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H4">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I4">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J4">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>107.3224785853054</v>
+        <v>167.3115072270417</v>
       </c>
       <c r="R4">
-        <v>965.9023072677491</v>
+        <v>1505.803565043375</v>
       </c>
       <c r="S4">
-        <v>0.05584674229880453</v>
+        <v>0.1020630622171925</v>
       </c>
       <c r="T4">
-        <v>0.05584674229880453</v>
+        <v>0.1020630622171925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H5">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I5">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J5">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>147.2769039037052</v>
+        <v>100.8237162798667</v>
       </c>
       <c r="R5">
-        <v>1325.492135133347</v>
+        <v>907.4134465187999</v>
       </c>
       <c r="S5">
-        <v>0.07663758242723047</v>
+        <v>0.06150430056001205</v>
       </c>
       <c r="T5">
-        <v>0.07663758242723048</v>
+        <v>0.06150430056001203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H6">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I6">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J6">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>92.91041498469124</v>
+        <v>168.260861407275</v>
       </c>
       <c r="R6">
-        <v>836.193734862221</v>
+        <v>1514.347752665475</v>
       </c>
       <c r="S6">
-        <v>0.04834722483976883</v>
+        <v>0.1026421855325531</v>
       </c>
       <c r="T6">
-        <v>0.04834722483976884</v>
+        <v>0.1026421855325531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.286854333333333</v>
+        <v>7.620274999999999</v>
       </c>
       <c r="H7">
-        <v>15.860563</v>
+        <v>22.860825</v>
       </c>
       <c r="I7">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834004</v>
       </c>
       <c r="J7">
-        <v>0.4075099150374557</v>
+        <v>0.6584612850834003</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>118.7898171907963</v>
+        <v>149.8259962710333</v>
       </c>
       <c r="R7">
-        <v>1069.108354717167</v>
+        <v>1348.4339664393</v>
       </c>
       <c r="S7">
-        <v>0.06181393120830169</v>
+        <v>0.09139658253399449</v>
       </c>
       <c r="T7">
-        <v>0.0618139312083017</v>
+        <v>0.09139658253399448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.107504</v>
       </c>
       <c r="I8">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J8">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N8">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O8">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P8">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q8">
-        <v>97.20129060480532</v>
+        <v>111.7545669168569</v>
       </c>
       <c r="R8">
-        <v>874.811615443248</v>
+        <v>1005.791102251712</v>
       </c>
       <c r="S8">
-        <v>0.05058004156326877</v>
+        <v>0.06817231824235861</v>
       </c>
       <c r="T8">
-        <v>0.05058004156326878</v>
+        <v>0.06817231824235861</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.107504</v>
       </c>
       <c r="I9">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J9">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P9">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q9">
         <v>84.72715018979555</v>
@@ -1013,10 +1013,10 @@
         <v>762.5443517081601</v>
       </c>
       <c r="S9">
-        <v>0.04408894934904613</v>
+        <v>0.05168510250506469</v>
       </c>
       <c r="T9">
-        <v>0.04408894934904613</v>
+        <v>0.05168510250506468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.107504</v>
       </c>
       <c r="I10">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J10">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N10">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q10">
-        <v>61.62706223011023</v>
+        <v>66.65508446507556</v>
       </c>
       <c r="R10">
-        <v>554.6435600709921</v>
+        <v>599.89576018568</v>
       </c>
       <c r="S10">
-        <v>0.0320684977496279</v>
+        <v>0.04066081374558136</v>
       </c>
       <c r="T10">
-        <v>0.0320684977496279</v>
+        <v>0.04066081374558136</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.107504</v>
       </c>
       <c r="I11">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J11">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N11">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q11">
-        <v>84.56982210597511</v>
+        <v>40.16707180575288</v>
       </c>
       <c r="R11">
-        <v>761.128398953776</v>
+        <v>361.503646251776</v>
       </c>
       <c r="S11">
-        <v>0.04400708149555165</v>
+        <v>0.02450264429947353</v>
       </c>
       <c r="T11">
-        <v>0.04400708149555167</v>
+        <v>0.02450264429947353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.107504</v>
       </c>
       <c r="I12">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J12">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N12">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q12">
-        <v>53.35132025986312</v>
+        <v>67.033296843408</v>
       </c>
       <c r="R12">
-        <v>480.1618823387681</v>
+        <v>603.299671590672</v>
       </c>
       <c r="S12">
-        <v>0.02776210047632571</v>
+        <v>0.04089153017471898</v>
       </c>
       <c r="T12">
-        <v>0.02776210047632572</v>
+        <v>0.04089153017471898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.107504</v>
       </c>
       <c r="I13">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="J13">
-        <v>0.2340016669801247</v>
+        <v>0.262323813236933</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N13">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O13">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P13">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q13">
-        <v>68.21187464937067</v>
+        <v>59.68904710754844</v>
       </c>
       <c r="R13">
-        <v>613.9068718443361</v>
+        <v>537.2014239679361</v>
       </c>
       <c r="S13">
-        <v>0.03549499634630451</v>
+        <v>0.03641140426973589</v>
       </c>
       <c r="T13">
-        <v>0.03549499634630452</v>
+        <v>0.03641140426973589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H14">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I14">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J14">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N14">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O14">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P14">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q14">
-        <v>148.911490009709</v>
+        <v>33.74694398246178</v>
       </c>
       <c r="R14">
-        <v>1340.203410087381</v>
+        <v>303.722495842156</v>
       </c>
       <c r="S14">
-        <v>0.07748816200972343</v>
+        <v>0.02058624956768915</v>
       </c>
       <c r="T14">
-        <v>0.07748816200972346</v>
+        <v>0.02058624956768915</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H15">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I15">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J15">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.72704</v>
       </c>
       <c r="O15">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P15">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q15">
-        <v>129.8012207506133</v>
+        <v>25.58537400423111</v>
       </c>
       <c r="R15">
-        <v>1168.21098675552</v>
+        <v>230.26836603808</v>
       </c>
       <c r="S15">
-        <v>0.06754386798444914</v>
+        <v>0.01560754345067502</v>
       </c>
       <c r="T15">
-        <v>0.06754386798444917</v>
+        <v>0.01560754345067502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H16">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I16">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J16">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N16">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q16">
-        <v>94.41209684054435</v>
+        <v>20.12808481699611</v>
       </c>
       <c r="R16">
-        <v>849.7088715648991</v>
+        <v>181.152763352965</v>
       </c>
       <c r="S16">
-        <v>0.04912864584983207</v>
+        <v>0.01227849779753805</v>
       </c>
       <c r="T16">
-        <v>0.04912864584983208</v>
+        <v>0.01227849779753805</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H17">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I17">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J17">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N17">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q17">
-        <v>129.5601955621997</v>
+        <v>12.12940069980978</v>
       </c>
       <c r="R17">
-        <v>1166.041760059797</v>
+        <v>109.164606298288</v>
       </c>
       <c r="S17">
-        <v>0.06741844718013777</v>
+        <v>0.007399155018082693</v>
       </c>
       <c r="T17">
-        <v>0.0674184471801378</v>
+        <v>0.00739915501808269</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H18">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I18">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J18">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N18">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q18">
-        <v>81.7337356782857</v>
+        <v>20.242295021529</v>
       </c>
       <c r="R18">
-        <v>735.6036211045712</v>
+        <v>182.180655193761</v>
       </c>
       <c r="S18">
-        <v>0.04253128453342303</v>
+        <v>0.01234816809938561</v>
       </c>
       <c r="T18">
-        <v>0.04253128453342304</v>
+        <v>0.01234816809938561</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.650871</v>
+        <v>0.9167423333333334</v>
       </c>
       <c r="H19">
-        <v>13.952613</v>
+        <v>2.750227</v>
       </c>
       <c r="I19">
-        <v>0.3584884179824196</v>
+        <v>0.07921490167966665</v>
       </c>
       <c r="J19">
-        <v>0.3584884179824197</v>
+        <v>0.07921490167966663</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N19">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O19">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P19">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q19">
-        <v>104.499969364513</v>
+        <v>18.02452449754089</v>
       </c>
       <c r="R19">
-        <v>940.4997242806172</v>
+        <v>162.220720477868</v>
       </c>
       <c r="S19">
-        <v>0.05437801042485414</v>
+        <v>0.01099528774629613</v>
       </c>
       <c r="T19">
-        <v>0.05437801042485416</v>
+        <v>0.01099528774629612</v>
       </c>
     </row>
   </sheetData>
